--- a/excel/NO2.xlsx
+++ b/excel/NO2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\web-heat-map\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A12D21-98EC-4FFB-AC40-7F3301C41662}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1575" yWindow="1185" windowWidth="28800" windowHeight="12120"/>
+    <workbookView xWindow="1575" yWindow="1185" windowWidth="28800" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="latlon_122938" localSheetId="0">Sheet1!$H$1:$I$339</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,8 +28,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="latlon_122938" type="6" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="latlon_122938" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr sourceFile="/Users/jalon/Desktop/latlon_122938.txt" tab="0" comma="1">
       <textFields count="21">
         <textField type="text"/>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1601" uniqueCount="369">
   <si>
     <t>天津</t>
   </si>
@@ -1166,16 +1167,12 @@
   </si>
   <si>
     <t>LNGB</t>
-  </si>
-  <si>
-    <t>MAX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1232,7 +1229,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1248,7 +1245,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="latlon_122938" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="latlon_122938" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1547,11 +1544,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I340"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I339"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="G163" sqref="G163"/>
+    <sheetView tabSelected="1" topLeftCell="A309" workbookViewId="0">
+      <selection activeCell="I340" sqref="A340:I340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10932,37 +10929,6 @@
         <v>94.349985000000004</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A340" t="s">
-        <v>369</v>
-      </c>
-      <c r="C340">
-        <f>MAX(C2:C339)</f>
-        <v>69</v>
-      </c>
-      <c r="D340">
-        <f t="shared" ref="D340:G340" si="0">MAX(D2:D339)</f>
-        <v>62</v>
-      </c>
-      <c r="E340">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="F340">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="G340">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="H340">
-        <v>0</v>
-      </c>
-      <c r="I340">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/NO2.xlsx
+++ b/excel/NO2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26812"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\web-heat-map\public\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jalon/files/code/web-heat-map/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A12D21-98EC-4FFB-AC40-7F3301C41662}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1575" yWindow="1185" windowWidth="28800" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4500" yWindow="-20360" windowWidth="28800" windowHeight="16080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +17,12 @@
   <definedNames>
     <definedName name="latlon_122938" localSheetId="0">Sheet1!$H$1:$I$339</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,8 +30,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="latlon_122938" type="6" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="latlon_122938" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr sourceFile="/Users/jalon/Desktop/latlon_122938.txt" tab="0" comma="1">
       <textFields count="21">
         <textField type="text"/>
@@ -1172,7 +1174,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1229,7 +1231,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1245,7 +1247,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="latlon_122938" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="latlon_122938" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1544,14 +1546,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I339"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A309" workbookViewId="0">
-      <selection activeCell="I340" sqref="A340:I340"/>
+    <sheetView tabSelected="1" topLeftCell="A312" workbookViewId="0">
+      <selection activeCell="P329" sqref="P329"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
@@ -10932,6 +10934,5 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>